--- a/docs/benchmarks/finance_queries.xlsx
+++ b/docs/benchmarks/finance_queries.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="finance.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="standard" sheetId="1" r:id="rId1"/>
+    <sheet name="big" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>Dataset</t>
   </si>
@@ -177,7 +178,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>finance.csv!$C$1</c:f>
+              <c:f>standard!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -189,7 +190,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>finance.csv!$A$3:$A$7</c:f>
+              <c:f>standard!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -212,7 +213,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>finance.csv!$G$10:$G$14</c:f>
+              <c:f>standard!$G$10:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -240,7 +241,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>finance.csv!$H$1</c:f>
+              <c:f>standard!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -252,7 +253,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>finance.csv!$A$3:$A$7</c:f>
+              <c:f>standard!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -275,7 +276,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>finance.csv!$L$10:$L$14</c:f>
+              <c:f>standard!$L$10:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -303,7 +304,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>finance.csv!$M$1</c:f>
+              <c:f>standard!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -315,7 +316,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>finance.csv!$A$3:$A$7</c:f>
+              <c:f>standard!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -338,7 +339,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>finance.csv!$Q$10:$Q$14</c:f>
+              <c:f>standard!$Q$10:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -366,7 +367,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>finance.csv!$R$1</c:f>
+              <c:f>standard!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -378,7 +379,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>finance.csv!$A$3:$A$7</c:f>
+              <c:f>standard!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -401,7 +402,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>finance.csv!$V$10:$V$14</c:f>
+              <c:f>standard!$V$10:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -433,11 +434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="6073416"/>
-        <c:axId val="654519256"/>
+        <c:axId val="2531368"/>
+        <c:axId val="402516552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6073416"/>
+        <c:axId val="2531368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -470,7 +471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654519256"/>
+        <c:crossAx val="402516552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -478,7 +479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="654519256"/>
+        <c:axId val="402516552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="6073416"/>
+        <c:crossAx val="2531368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -517,6 +518,394 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>big!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interpreted LMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>big!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>axfinder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>brokerspread</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>brokervariance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pricespread</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vwap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>big!$G$10:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.152804099412842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.510833075447175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.117965146661214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.167394135152782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.205370082028153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>big!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ToasterBooster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>big!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>axfinder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>brokerspread</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>brokervariance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pricespread</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vwap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>big!$L$10:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.209293266265903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.10050256854614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.757840486522921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.146133294239927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.208245343301728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>big!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New Scala Gen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>big!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>axfinder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>brokerspread</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>brokervariance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pricespread</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vwap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>big!$Q$10:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>big!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K3Optimizer -O3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>big!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>axfinder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>brokerspread</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>brokervariance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pricespread</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vwap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>big!$V$10:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.675814458336873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.053772977656743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.704943236468013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.376314920195347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.139166266682794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="514124024"/>
+        <c:axId val="514129848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="514124024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Financial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Queries</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="514129848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514129848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (Normalized)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="514124024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.658944881889764"/>
+          <c:y val="0.0504050954669627"/>
+          <c:w val="0.205229019769203"/>
+          <c:h val="0.299186791595185"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -549,6 +938,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1415,7 +1841,545 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V14"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.03</v>
+      </c>
+      <c r="C3">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="D3">
+        <v>5.117</v>
+      </c>
+      <c r="E3">
+        <v>3.6039460000000001</v>
+      </c>
+      <c r="F3">
+        <v>3.411286</v>
+      </c>
+      <c r="G3">
+        <v>3.9891610000000002</v>
+      </c>
+      <c r="H3">
+        <v>31.457999999999998</v>
+      </c>
+      <c r="I3">
+        <v>2.823</v>
+      </c>
+      <c r="J3">
+        <v>3.383915</v>
+      </c>
+      <c r="K3">
+        <v>3.3214070000000002</v>
+      </c>
+      <c r="L3">
+        <v>4.1846360000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="N3">
+        <v>1.155</v>
+      </c>
+      <c r="O3">
+        <v>3.2139709999999999</v>
+      </c>
+      <c r="P3">
+        <v>2.9227110000000001</v>
+      </c>
+      <c r="Q3">
+        <v>3.4603980000000001</v>
+      </c>
+      <c r="R3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S3">
+        <v>1.853</v>
+      </c>
+      <c r="T3">
+        <v>5.2677449999999997</v>
+      </c>
+      <c r="U3">
+        <v>5.1803030000000003</v>
+      </c>
+      <c r="V3">
+        <v>5.7989850000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.221</v>
+      </c>
+      <c r="D4">
+        <v>0.626</v>
+      </c>
+      <c r="E4">
+        <v>1.7298519999999999</v>
+      </c>
+      <c r="F4">
+        <v>1.689629</v>
+      </c>
+      <c r="G4">
+        <v>2.4410530000000001</v>
+      </c>
+      <c r="H4">
+        <v>21.216000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J4">
+        <v>8.1262849999999993</v>
+      </c>
+      <c r="K4">
+        <v>7.8859469999999998</v>
+      </c>
+      <c r="L4">
+        <v>8.2408819999999992</v>
+      </c>
+      <c r="M4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="O4">
+        <v>1.5030790000000001</v>
+      </c>
+      <c r="P4">
+        <v>1.4910490000000001</v>
+      </c>
+      <c r="Q4">
+        <v>1.6156999999999999</v>
+      </c>
+      <c r="R4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S4">
+        <v>1.196</v>
+      </c>
+      <c r="T4">
+        <v>14.485011</v>
+      </c>
+      <c r="U4">
+        <v>14.190554000000001</v>
+      </c>
+      <c r="V4">
+        <v>14.628181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.25071199999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.23454700000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.29522999999999999</v>
+      </c>
+      <c r="H5">
+        <v>12.669</v>
+      </c>
+      <c r="I5">
+        <v>0.73</v>
+      </c>
+      <c r="J5">
+        <v>0.41711799999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.40428700000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.46420699999999998</v>
+      </c>
+      <c r="M5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="O5">
+        <v>0.25382500000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.242977</v>
+      </c>
+      <c r="Q5">
+        <v>0.26407799999999998</v>
+      </c>
+      <c r="R5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S5">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="T5">
+        <v>0.41547299999999998</v>
+      </c>
+      <c r="U5">
+        <v>0.40252900000000003</v>
+      </c>
+      <c r="V5">
+        <v>0.45023800000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E6">
+        <v>18.208698999999999</v>
+      </c>
+      <c r="F6">
+        <v>17.935727</v>
+      </c>
+      <c r="G6">
+        <v>18.426636999999999</v>
+      </c>
+      <c r="H6">
+        <v>33.533999999999999</v>
+      </c>
+      <c r="I6">
+        <v>1.157</v>
+      </c>
+      <c r="J6">
+        <v>17.866958</v>
+      </c>
+      <c r="K6">
+        <v>17.705908999999998</v>
+      </c>
+      <c r="L6">
+        <v>18.091047</v>
+      </c>
+      <c r="M6">
+        <v>0.1</v>
+      </c>
+      <c r="N6">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="O6">
+        <v>15.595147000000001</v>
+      </c>
+      <c r="P6">
+        <v>15.363842</v>
+      </c>
+      <c r="Q6">
+        <v>15.784418000000001</v>
+      </c>
+      <c r="R6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="T6">
+        <v>21.383738999999998</v>
+      </c>
+      <c r="U6">
+        <v>21.160083</v>
+      </c>
+      <c r="V6">
+        <v>21.724329999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.11</v>
+      </c>
+      <c r="D7">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="E7">
+        <v>3.065226</v>
+      </c>
+      <c r="F7">
+        <v>3.0412699999999999</v>
+      </c>
+      <c r="G7">
+        <v>3.1290659999999999</v>
+      </c>
+      <c r="H7">
+        <v>18.425000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="J7">
+        <v>3.0903779999999998</v>
+      </c>
+      <c r="K7">
+        <v>3.051069</v>
+      </c>
+      <c r="L7">
+        <v>3.13653</v>
+      </c>
+      <c r="M7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="O7">
+        <v>2.555625</v>
+      </c>
+      <c r="P7">
+        <v>2.5491959999999998</v>
+      </c>
+      <c r="Q7">
+        <v>2.5959379999999999</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="T7">
+        <v>13.185905</v>
+      </c>
+      <c r="U7">
+        <v>12.985325</v>
+      </c>
+      <c r="V7">
+        <v>13.340957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="G10">
+        <f>(G3/$Q3)</f>
+        <v>1.1528040994128421</v>
+      </c>
+      <c r="L10">
+        <f>(L3/$Q3)</f>
+        <v>1.2092932662659035</v>
+      </c>
+      <c r="Q10">
+        <f>(Q3/$Q3)</f>
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <f>(V3/$Q3)</f>
+        <v>1.6758144583368733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="G11">
+        <f>(G4/$Q4)</f>
+        <v>1.5108330754471748</v>
+      </c>
+      <c r="L11">
+        <f>(L4/$Q4)</f>
+        <v>5.1005025685461405</v>
+      </c>
+      <c r="Q11">
+        <f>(Q4/$Q4)</f>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f>(V4/$Q4)</f>
+        <v>9.0537729776567435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="G12">
+        <f>(G5/$Q5)</f>
+        <v>1.1179651466612137</v>
+      </c>
+      <c r="L12">
+        <f>(L5/$Q5)</f>
+        <v>1.7578404865229214</v>
+      </c>
+      <c r="Q12">
+        <f>(Q5/$Q5)</f>
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <f>(V5/$Q5)</f>
+        <v>1.7049432364680135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="G13">
+        <f>(G6/$Q6)</f>
+        <v>1.1673941351527817</v>
+      </c>
+      <c r="L13">
+        <f>(L6/$Q6)</f>
+        <v>1.1461332942399269</v>
+      </c>
+      <c r="Q13">
+        <f>(Q6/$Q6)</f>
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f>(V6/$Q6)</f>
+        <v>1.3763149201953468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="G14">
+        <f>(G7/$Q7)</f>
+        <v>1.2053700820281532</v>
+      </c>
+      <c r="L14">
+        <f>(L7/$Q7)</f>
+        <v>1.2082453433017277</v>
+      </c>
+      <c r="Q14">
+        <f>(Q7/$Q7)</f>
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <f>(V7/$Q7)</f>
+        <v>5.1391662666827944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/docs/benchmarks/finance_queries.xlsx
+++ b/docs/benchmarks/finance_queries.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="16880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="standard" sheetId="1" r:id="rId1"/>
-    <sheet name="big" sheetId="2" r:id="rId2"/>
+    <sheet name="standard-concise" sheetId="3" r:id="rId1"/>
+    <sheet name="standard" sheetId="1" r:id="rId2"/>
+    <sheet name="big" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="18">
   <si>
     <t>Dataset</t>
   </si>
@@ -122,8 +123,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -136,15 +179,57 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -178,11 +263,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>standard!$C$1</c:f>
+              <c:f>'standard-concise'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Interpreted LMS</c:v>
+                  <c:v>New Scala Gen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -190,7 +275,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>standard!$A$3:$A$7</c:f>
+              <c:f>'standard-concise'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -213,24 +298,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>standard!$G$10:$G$14</c:f>
+              <c:f>'standard-concise'!$G$10:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.724224736071996</c:v>
+                  <c:v>1.958041958041958</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.312631716640263</c:v>
+                  <c:v>0.931034482758621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.282843610612958</c:v>
+                  <c:v>1.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.34205453606508</c:v>
+                  <c:v>0.891774891774892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.205370082028153</c:v>
+                  <c:v>0.853956834532374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -241,11 +326,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>standard!$H$1</c:f>
+              <c:f>'standard-concise'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ToasterBooster</c:v>
+                  <c:v>Interpreted LMS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -253,7 +338,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>standard!$A$3:$A$7</c:f>
+              <c:f>'standard-concise'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -276,24 +361,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>standard!$L$10:$L$14</c:f>
+              <c:f>'standard-concise'!$L$10:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.100678110102424</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.414822028109239</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.213822596220168</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.442403759133231</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.208245343301728</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -304,11 +389,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>standard!$M$1</c:f>
+              <c:f>'standard-concise'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>New Scala Gen</c:v>
+                  <c:v>K3Optimizer -O3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -316,7 +401,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>standard!$A$3:$A$7</c:f>
+              <c:f>'standard-concise'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -339,24 +424,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>standard!$Q$10:$Q$14</c:f>
+              <c:f>'standard-concise'!$Q$10:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>4.919</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1.905942528735632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>3.178190476190476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1.560363636363636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>4.401786330935252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -367,11 +452,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>standard!$R$1</c:f>
+              <c:f>'standard-concise'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K3Optimizer -O3</c:v>
+                  <c:v>ToasterBooster</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -379,7 +464,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>standard!$A$3:$A$7</c:f>
+              <c:f>'standard-concise'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -402,24 +487,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>standard!$V$10:$V$14</c:f>
+              <c:f>'standard-concise'!$V$10:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.592001132805739</c:v>
+                  <c:v>1.814468531468532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.554699649724576</c:v>
+                  <c:v>1.259781609195402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.676966937968455</c:v>
+                  <c:v>2.400666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.139551174217827</c:v>
+                  <c:v>1.136017316017316</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.139166266682794</c:v>
+                  <c:v>1.029006474820144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,11 +519,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2531368"/>
-        <c:axId val="402516552"/>
+        <c:axId val="134947000"/>
+        <c:axId val="134954184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2531368"/>
+        <c:axId val="134947000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,7 +556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402516552"/>
+        <c:crossAx val="134954184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -479,7 +564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402516552"/>
+        <c:axId val="134954184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2531368"/>
+        <c:crossAx val="134947000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -557,11 +642,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>big!$C$1</c:f>
+              <c:f>standard!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Interpreted LMS</c:v>
+                  <c:v>New Scala Gen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -569,7 +654,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>big!$A$3:$A$7</c:f>
+              <c:f>standard!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -592,24 +677,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>big!$G$10:$G$14</c:f>
+              <c:f>standard!$G$10:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.152804099412842</c:v>
+                  <c:v>0.579970800255498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.510833075447175</c:v>
+                  <c:v>0.761828308216979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.117965146661214</c:v>
+                  <c:v>0.779518245035486</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.167394135152782</c:v>
+                  <c:v>0.745126202495476</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.205370082028153</c:v>
+                  <c:v>0.82962072388374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,11 +705,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>big!$H$1</c:f>
+              <c:f>standard!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ToasterBooster</c:v>
+                  <c:v>Interpreted LMS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -632,7 +717,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>big!$A$3:$A$7</c:f>
+              <c:f>standard!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -655,24 +740,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>big!$L$10:$L$14</c:f>
+              <c:f>standard!$L$10:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.209293266265903</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.10050256854614</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.757840486522921</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.146133294239927</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.208245343301728</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,11 +768,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>big!$M$1</c:f>
+              <c:f>standard!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>New Scala Gen</c:v>
+                  <c:v>K3Optimizer -O3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -695,7 +780,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>big!$A$3:$A$7</c:f>
+              <c:f>standard!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -718,24 +803,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>big!$Q$10:$Q$14</c:f>
+              <c:f>standard!$Q$10:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1.503284971256502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1.946242512152182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1.307226324467704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1.594235641489666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>4.263558838324279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -746,11 +831,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>big!$R$1</c:f>
+              <c:f>standard!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K3Optimizer -O3</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -758,7 +843,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>big!$A$3:$A$7</c:f>
+              <c:f>standard!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -781,24 +866,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>big!$V$10:$V$14</c:f>
+              <c:f>standard!$V$10:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.675814458336873</c:v>
+                  <c:v>1.798302764850807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.053772977656743</c:v>
+                  <c:v>1.077851472102576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.704943236468013</c:v>
+                  <c:v>1.72571510502545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.376314920195347</c:v>
+                  <c:v>1.074772835508144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.139166266682794</c:v>
+                  <c:v>1.002385376339138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,11 +898,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="514124024"/>
-        <c:axId val="514129848"/>
+        <c:axId val="135033128"/>
+        <c:axId val="135038952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514124024"/>
+        <c:axId val="135033128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514129848"/>
+        <c:crossAx val="135038952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -858,7 +943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514129848"/>
+        <c:axId val="135038952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +973,386 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514124024"/>
+        <c:crossAx val="135033128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>big!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New Scala Gen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>big!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>axfinder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>brokerspread</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>brokervariance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pricespread</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vwap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>big!$G$10:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.867450072834864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.661886489150379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.894482268062189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.856608723556013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82962072388374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>big!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>big!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>axfinder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>brokerspread</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>brokervariance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pricespread</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vwap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>big!$L$10:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>big!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K3Optimizer -O3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>big!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>axfinder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>brokerspread</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>brokervariance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pricespread</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vwap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>big!$Q$10:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.453685373942039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.992570009745793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.525041493073197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.178963366999632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.263558838324279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>big!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>big!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>axfinder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>brokerspread</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>brokervariance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pricespread</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vwap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>big!$V$10:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.04900153190107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.375953737997495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.572357145276564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.981787778203912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.002385376339138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="135086888"/>
+        <c:axId val="135092712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135086888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Financial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Queries</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135092712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135092712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (Normalized)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135086888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -936,8 +1400,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -958,16 +1424,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1315,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1329,16 +1830,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -1414,67 +1915,67 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.03</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>1.046</v>
+        <v>0.373</v>
       </c>
       <c r="D3">
-        <v>5.3090000000000002</v>
+        <v>6.9729999999999999</v>
       </c>
       <c r="E3">
-        <v>8.6069000000000007E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F3">
-        <v>4.8446999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G3">
-        <v>0.32877000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H3">
-        <v>31.131</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="I3">
-        <v>2.84</v>
+        <v>1.927</v>
       </c>
       <c r="J3">
-        <v>0.16589100000000001</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="K3">
-        <v>7.3984999999999995E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L3">
-        <v>0.59122799999999998</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="M3">
-        <v>0.12</v>
+        <v>2.3E-2</v>
       </c>
       <c r="N3">
-        <v>1.1180000000000001</v>
+        <v>3.105</v>
       </c>
       <c r="O3">
-        <v>6.5641000000000005E-2</v>
+        <v>0.12537100000000001</v>
       </c>
       <c r="P3">
-        <v>3.6382999999999999E-2</v>
+        <v>0.10902299999999999</v>
       </c>
       <c r="Q3">
-        <v>0.19067700000000001</v>
+        <v>0.70341699999999996</v>
       </c>
       <c r="R3">
-        <v>1.2999999999999999E-2</v>
+        <v>28.954999999999998</v>
       </c>
       <c r="S3">
-        <v>1.522</v>
+        <v>1.944</v>
       </c>
       <c r="T3">
-        <v>0.12859300000000001</v>
+        <v>9.6939999999999998E-2</v>
       </c>
       <c r="U3">
-        <v>0.100422</v>
+        <v>9.1664999999999996E-2</v>
       </c>
       <c r="V3">
-        <v>0.49423499999999998</v>
+        <v>0.25946900000000001</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1482,67 +1983,67 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C4">
-        <v>0.20799999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D4">
-        <v>0.41799999999999998</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="E4">
-        <v>4.3639999999999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F4">
-        <v>3.1940000000000003E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="G4">
-        <v>9.0313000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H4">
-        <v>21.295999999999999</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="I4">
-        <v>0.73699999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="J4">
-        <v>6.2016000000000002E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="K4">
-        <v>4.1779999999999998E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="L4">
-        <v>9.7344E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="M4">
-        <v>3.6999999999999998E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="N4">
-        <v>0.36599999999999999</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="O4">
-        <v>3.9487000000000001E-2</v>
+        <v>8.4353999999999998E-2</v>
       </c>
       <c r="P4">
-        <v>2.8399000000000001E-2</v>
+        <v>7.5542999999999999E-2</v>
       </c>
       <c r="Q4">
-        <v>6.8803000000000003E-2</v>
+        <v>0.16581699999999999</v>
       </c>
       <c r="R4">
-        <v>1.0999999999999999E-2</v>
+        <v>20.059000000000001</v>
       </c>
       <c r="S4">
-        <v>0.82599999999999996</v>
+        <v>1.232</v>
       </c>
       <c r="T4">
-        <v>9.1304999999999997E-2</v>
+        <v>6.6367999999999996E-2</v>
       </c>
       <c r="U4">
-        <v>7.1971999999999994E-2</v>
+        <v>5.1052E-2</v>
       </c>
       <c r="V4">
-        <v>0.17577100000000001</v>
+        <v>0.109601</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1550,67 +2051,67 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>3.6999999999999998E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C5">
-        <v>6.4000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D5">
-        <v>0.252</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="E5">
-        <v>1.7016E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F5">
-        <v>1.2718999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G5">
-        <v>2.7897999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H5">
-        <v>12.691000000000001</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="J5">
-        <v>3.0476E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K5">
-        <v>2.2317E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L5">
-        <v>4.8143999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="M5">
-        <v>0.02</v>
+        <v>2E-3</v>
       </c>
       <c r="N5">
-        <v>0.21199999999999999</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="O5">
-        <v>1.6246E-2</v>
+        <v>3.0789E-2</v>
       </c>
       <c r="P5">
-        <v>1.0725999999999999E-2</v>
+        <v>2.4535999999999999E-2</v>
       </c>
       <c r="Q5">
-        <v>2.1746999999999999E-2</v>
+        <v>6.6741999999999996E-2</v>
       </c>
       <c r="R5">
-        <v>3.0000000000000001E-3</v>
+        <v>11.865</v>
       </c>
       <c r="S5">
-        <v>0.41299999999999998</v>
+        <v>1.024</v>
       </c>
       <c r="T5">
-        <v>2.6464000000000001E-2</v>
+        <v>3.4019000000000001E-2</v>
       </c>
       <c r="U5">
-        <v>2.1016E-2</v>
+        <v>2.4813000000000002E-2</v>
       </c>
       <c r="V5">
-        <v>3.6469000000000001E-2</v>
+        <v>5.0414E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1618,67 +2119,67 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>4.4999999999999998E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C6">
-        <v>0.29699999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D6">
-        <v>0.56100000000000005</v>
+        <v>1.091</v>
       </c>
       <c r="E6">
-        <v>0.152726</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="F6">
-        <v>0.14870900000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G6">
-        <v>0.26247500000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="H6">
-        <v>32.067999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="I6">
-        <v>0.80500000000000005</v>
+        <v>1.048</v>
       </c>
       <c r="J6">
-        <v>0.15417400000000001</v>
+        <v>0.156</v>
       </c>
       <c r="K6">
-        <v>0.150509</v>
+        <v>0.13</v>
       </c>
       <c r="L6">
-        <v>0.28210099999999999</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="M6">
-        <v>6.6000000000000003E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="N6">
-        <v>0.44500000000000001</v>
+        <v>1.2669999999999999</v>
       </c>
       <c r="O6">
-        <v>0.13852200000000001</v>
+        <v>0.196384</v>
       </c>
       <c r="P6">
-        <v>0.123278</v>
+        <v>0.17818100000000001</v>
       </c>
       <c r="Q6">
-        <v>0.195577</v>
+        <v>0.36044399999999999</v>
       </c>
       <c r="R6">
-        <v>1.2999999999999999E-2</v>
+        <v>29.427</v>
       </c>
       <c r="S6">
-        <v>0.76400000000000001</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="T6">
-        <v>0.19171099999999999</v>
+        <v>0.16048599999999999</v>
       </c>
       <c r="U6">
-        <v>0.185588</v>
+        <v>0.15412100000000001</v>
       </c>
       <c r="V6">
-        <v>0.41844700000000001</v>
+        <v>0.26241999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1686,161 +2187,162 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>5.6000000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>0.11</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D7">
-        <v>0.28799999999999998</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="E7">
-        <v>3.065226</v>
+        <v>2.302</v>
       </c>
       <c r="F7">
-        <v>3.0412699999999999</v>
+        <v>2.278</v>
       </c>
       <c r="G7">
-        <v>3.1290659999999999</v>
+        <v>2.3740000000000001</v>
       </c>
       <c r="H7">
-        <v>18.425000000000001</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I7">
-        <v>0.41399999999999998</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="J7">
-        <v>3.0903779999999998</v>
+        <v>2.7189999999999999</v>
       </c>
       <c r="K7">
-        <v>3.051069</v>
+        <v>2.681</v>
       </c>
       <c r="L7">
-        <v>3.13653</v>
+        <v>2.78</v>
       </c>
       <c r="M7">
-        <v>2.5999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N7">
-        <v>0.20899999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="O7">
-        <v>2.555625</v>
+        <v>12.092109000000001</v>
       </c>
       <c r="P7">
-        <v>2.5491959999999998</v>
+        <v>11.910942</v>
       </c>
       <c r="Q7">
-        <v>2.5959379999999999</v>
+        <v>12.236966000000001</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>17.344999999999999</v>
       </c>
       <c r="S7">
-        <v>0.45600000000000002</v>
+        <v>1.038</v>
       </c>
       <c r="T7">
-        <v>13.185905</v>
+        <v>2.8075169999999998</v>
       </c>
       <c r="U7">
-        <v>12.985325</v>
+        <v>2.755382</v>
       </c>
       <c r="V7">
-        <v>13.340957</v>
+        <v>2.8606379999999998</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="G10">
-        <f>(G3/$Q3)</f>
-        <v>1.724224736071996</v>
+        <f>(G3/$L3)</f>
+        <v>1.9580419580419584</v>
       </c>
       <c r="L10">
-        <f>(L3/$Q3)</f>
-        <v>3.1006781101024243</v>
+        <f>(L3/$L3)</f>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <f>(Q3/$Q3)</f>
-        <v>1</v>
+        <f>(Q3/$L3)</f>
+        <v>4.9190000000000005</v>
       </c>
       <c r="V10">
-        <f>(V3/$Q3)</f>
-        <v>2.5920011328057391</v>
+        <f>(V3/$L3)</f>
+        <v>1.8144685314685316</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="G11">
-        <f t="shared" ref="G11:G14" si="0">(G4/$Q4)</f>
-        <v>1.3126317166402628</v>
+        <f t="shared" ref="G11:G14" si="0">(G4/$L4)</f>
+        <v>0.93103448275862077</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L14" si="1">(L4/$Q4)</f>
-        <v>1.4148220281092394</v>
+        <f t="shared" ref="L11:L14" si="1">(L4/$L4)</f>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:Q14" si="2">(Q4/$Q4)</f>
-        <v>1</v>
+        <f t="shared" ref="Q11:Q14" si="2">(Q4/$L4)</f>
+        <v>1.9059425287356322</v>
       </c>
       <c r="V11">
-        <f t="shared" ref="V11:V14" si="3">(V4/$Q4)</f>
-        <v>2.5546996497245762</v>
+        <f t="shared" ref="V11:V14" si="3">(V4/$L4)</f>
+        <v>1.2597816091954024</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>1.2828436106129582</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>2.2138225962201683</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.1781904761904758</v>
       </c>
       <c r="V12">
         <f t="shared" si="3"/>
-        <v>1.6769669379684555</v>
+        <v>2.4006666666666665</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1.3420545360650793</v>
+        <v>0.89177489177489166</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>1.4424037591332313</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5603636363636362</v>
       </c>
       <c r="V13">
         <f t="shared" si="3"/>
-        <v>2.1395511742178273</v>
+        <v>1.1360173160173159</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1.2053700820281532</v>
+        <v>0.85395683453237425</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1.2082453433017277</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.4017863309352521</v>
       </c>
       <c r="V14">
         <f t="shared" si="3"/>
-        <v>5.1391662666827944</v>
+        <v>1.029006474820144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1855,7 +2357,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="G10" sqref="G10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1868,16 +2370,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -1956,64 +2458,64 @@
         <v>0.03</v>
       </c>
       <c r="C3">
-        <v>1.0309999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="D3">
-        <v>5.117</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="E3">
-        <v>3.6039460000000001</v>
+        <v>6.5641000000000005E-2</v>
       </c>
       <c r="F3">
-        <v>3.411286</v>
+        <v>3.6382999999999999E-2</v>
       </c>
       <c r="G3">
-        <v>3.9891610000000002</v>
+        <v>0.19067700000000001</v>
       </c>
       <c r="H3">
-        <v>31.457999999999998</v>
+        <v>1.046</v>
       </c>
       <c r="I3">
-        <v>2.823</v>
+        <v>5.3090000000000002</v>
       </c>
       <c r="J3">
-        <v>3.383915</v>
+        <v>8.6069000000000007E-2</v>
       </c>
       <c r="K3">
-        <v>3.3214070000000002</v>
+        <v>4.8446999999999997E-2</v>
       </c>
       <c r="L3">
-        <v>4.1846360000000002</v>
+        <v>0.32877000000000001</v>
       </c>
       <c r="M3">
-        <v>0.13600000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="N3">
-        <v>1.155</v>
+        <v>1.522</v>
       </c>
       <c r="O3">
-        <v>3.2139709999999999</v>
+        <v>0.12859300000000001</v>
       </c>
       <c r="P3">
-        <v>2.9227110000000001</v>
+        <v>0.100422</v>
       </c>
       <c r="Q3">
-        <v>3.4603980000000001</v>
+        <v>0.49423499999999998</v>
       </c>
       <c r="R3">
-        <v>1.2999999999999999E-2</v>
+        <v>31.131</v>
       </c>
       <c r="S3">
-        <v>1.853</v>
+        <v>2.84</v>
       </c>
       <c r="T3">
-        <v>5.2677449999999997</v>
+        <v>0.16589100000000001</v>
       </c>
       <c r="U3">
-        <v>5.1803030000000003</v>
+        <v>7.3984999999999995E-2</v>
       </c>
       <c r="V3">
-        <v>5.7989850000000001</v>
+        <v>0.59122799999999998</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -2024,64 +2526,64 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="C4">
-        <v>0.221</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D4">
-        <v>0.626</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="E4">
-        <v>1.7298519999999999</v>
+        <v>3.9487000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>1.689629</v>
+        <v>2.8399000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>2.4410530000000001</v>
+        <v>6.8803000000000003E-2</v>
       </c>
       <c r="H4">
-        <v>21.216000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="I4">
-        <v>0.95799999999999996</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="J4">
-        <v>8.1262849999999993</v>
+        <v>4.3639999999999998E-2</v>
       </c>
       <c r="K4">
-        <v>7.8859469999999998</v>
+        <v>3.1940000000000003E-2</v>
       </c>
       <c r="L4">
-        <v>8.2408819999999992</v>
+        <v>9.0313000000000004E-2</v>
       </c>
       <c r="M4">
-        <v>4.7E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N4">
-        <v>0.51900000000000002</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="O4">
-        <v>1.5030790000000001</v>
+        <v>9.1304999999999997E-2</v>
       </c>
       <c r="P4">
-        <v>1.4910490000000001</v>
+        <v>7.1971999999999994E-2</v>
       </c>
       <c r="Q4">
-        <v>1.6156999999999999</v>
+        <v>0.17577100000000001</v>
       </c>
       <c r="R4">
-        <v>8.9999999999999993E-3</v>
+        <v>21.295999999999999</v>
       </c>
       <c r="S4">
-        <v>1.196</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="T4">
-        <v>14.485011</v>
+        <v>6.2016000000000002E-2</v>
       </c>
       <c r="U4">
-        <v>14.190554000000001</v>
+        <v>4.1779999999999998E-2</v>
       </c>
       <c r="V4">
-        <v>14.628181</v>
+        <v>9.7344E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -2089,67 +2591,67 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C5">
-        <v>7.5999999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D5">
-        <v>0.39700000000000002</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="E5">
-        <v>0.25071199999999999</v>
+        <v>1.6246E-2</v>
       </c>
       <c r="F5">
-        <v>0.23454700000000001</v>
+        <v>1.0725999999999999E-2</v>
       </c>
       <c r="G5">
-        <v>0.29522999999999999</v>
+        <v>2.1746999999999999E-2</v>
       </c>
       <c r="H5">
-        <v>12.669</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="I5">
-        <v>0.73</v>
+        <v>0.252</v>
       </c>
       <c r="J5">
-        <v>0.41711799999999999</v>
+        <v>1.7016E-2</v>
       </c>
       <c r="K5">
-        <v>0.40428700000000001</v>
+        <v>1.2718999999999999E-2</v>
       </c>
       <c r="L5">
-        <v>0.46420699999999998</v>
+        <v>2.7897999999999999E-2</v>
       </c>
       <c r="M5">
-        <v>2.7E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N5">
-        <v>0.41099999999999998</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="O5">
-        <v>0.25382500000000002</v>
+        <v>2.6464000000000001E-2</v>
       </c>
       <c r="P5">
-        <v>0.242977</v>
+        <v>2.1016E-2</v>
       </c>
       <c r="Q5">
-        <v>0.26407799999999998</v>
+        <v>3.6469000000000001E-2</v>
       </c>
       <c r="R5">
-        <v>4.0000000000000001E-3</v>
+        <v>12.691000000000001</v>
       </c>
       <c r="S5">
-        <v>0.65600000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="T5">
-        <v>0.41547299999999998</v>
+        <v>3.0476E-2</v>
       </c>
       <c r="U5">
-        <v>0.40252900000000003</v>
+        <v>2.2317E-2</v>
       </c>
       <c r="V5">
-        <v>0.45023800000000003</v>
+        <v>4.8143999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -2157,67 +2659,67 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C6">
-        <v>0.41099999999999998</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D6">
-        <v>0.90600000000000003</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="E6">
-        <v>18.208698999999999</v>
+        <v>0.13852200000000001</v>
       </c>
       <c r="F6">
-        <v>17.935727</v>
+        <v>0.123278</v>
       </c>
       <c r="G6">
-        <v>18.426636999999999</v>
+        <v>0.195577</v>
       </c>
       <c r="H6">
-        <v>33.533999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="I6">
-        <v>1.157</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="J6">
-        <v>17.866958</v>
+        <v>0.152726</v>
       </c>
       <c r="K6">
-        <v>17.705908999999998</v>
+        <v>0.14870900000000001</v>
       </c>
       <c r="L6">
-        <v>18.091047</v>
+        <v>0.26247500000000001</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="N6">
         <v>0.76400000000000001</v>
       </c>
       <c r="O6">
-        <v>15.595147000000001</v>
+        <v>0.19171099999999999</v>
       </c>
       <c r="P6">
-        <v>15.363842</v>
+        <v>0.185588</v>
       </c>
       <c r="Q6">
-        <v>15.784418000000001</v>
+        <v>0.41844700000000001</v>
       </c>
       <c r="R6">
-        <v>8.9999999999999993E-3</v>
+        <v>32.067999999999998</v>
       </c>
       <c r="S6">
-        <v>1.1639999999999999</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="T6">
-        <v>21.383738999999998</v>
+        <v>0.15417400000000001</v>
       </c>
       <c r="U6">
-        <v>21.160083</v>
+        <v>0.150509</v>
       </c>
       <c r="V6">
-        <v>21.724329999999998</v>
+        <v>0.28210099999999999</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -2228,158 +2730,699 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="C7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E7">
+        <v>2.555625</v>
+      </c>
+      <c r="F7">
+        <v>2.5491959999999998</v>
+      </c>
+      <c r="G7">
+        <v>2.5959379999999999</v>
+      </c>
+      <c r="H7">
         <v>0.11</v>
       </c>
-      <c r="D7">
+      <c r="I7">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E7">
+      <c r="J7">
         <v>3.065226</v>
       </c>
-      <c r="F7">
+      <c r="K7">
         <v>3.0412699999999999</v>
       </c>
-      <c r="G7">
+      <c r="L7">
         <v>3.1290659999999999</v>
       </c>
-      <c r="H7">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="O7">
+        <v>13.185905</v>
+      </c>
+      <c r="P7">
+        <v>12.985325</v>
+      </c>
+      <c r="Q7">
+        <v>13.340957</v>
+      </c>
+      <c r="R7">
         <v>18.425000000000001</v>
       </c>
-      <c r="I7">
+      <c r="S7">
         <v>0.41399999999999998</v>
       </c>
-      <c r="J7">
+      <c r="T7">
         <v>3.0903779999999998</v>
       </c>
-      <c r="K7">
+      <c r="U7">
         <v>3.051069</v>
       </c>
-      <c r="L7">
+      <c r="V7">
         <v>3.13653</v>
-      </c>
-      <c r="M7">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="N7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="O7">
-        <v>2.555625</v>
-      </c>
-      <c r="P7">
-        <v>2.5491959999999998</v>
-      </c>
-      <c r="Q7">
-        <v>2.5959379999999999</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="T7">
-        <v>13.185905</v>
-      </c>
-      <c r="U7">
-        <v>12.985325</v>
-      </c>
-      <c r="V7">
-        <v>13.340957</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="G10">
-        <f>(G3/$Q3)</f>
-        <v>1.1528040994128421</v>
+        <f>(G3/$L3)</f>
+        <v>0.57997080025549774</v>
       </c>
       <c r="L10">
-        <f>(L3/$Q3)</f>
-        <v>1.2092932662659035</v>
+        <f>(L3/$L3)</f>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <f>(Q3/$Q3)</f>
-        <v>1</v>
+        <f>(Q3/$L3)</f>
+        <v>1.5032849712565015</v>
       </c>
       <c r="V10">
-        <f>(V3/$Q3)</f>
-        <v>1.6758144583368733</v>
+        <f>(V3/$L3)</f>
+        <v>1.7983027648508074</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="G11">
-        <f>(G4/$Q4)</f>
-        <v>1.5108330754471748</v>
+        <f t="shared" ref="G11:G14" si="0">(G4/$L4)</f>
+        <v>0.76182830821697878</v>
       </c>
       <c r="L11">
-        <f>(L4/$Q4)</f>
-        <v>5.1005025685461405</v>
+        <f t="shared" ref="L11:L14" si="1">(L4/$L4)</f>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <f>(Q4/$Q4)</f>
-        <v>1</v>
+        <f t="shared" ref="Q11:Q14" si="2">(Q4/$L4)</f>
+        <v>1.9462425121521818</v>
       </c>
       <c r="V11">
-        <f>(V4/$Q4)</f>
-        <v>9.0537729776567435</v>
+        <f t="shared" ref="V11:V14" si="3">(V4/$L4)</f>
+        <v>1.0778514721025765</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="G12">
-        <f>(G5/$Q5)</f>
-        <v>1.1179651466612137</v>
+        <f t="shared" si="0"/>
+        <v>0.77951824503548639</v>
       </c>
       <c r="L12">
-        <f>(L5/$Q5)</f>
-        <v>1.7578404865229214</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <f>(Q5/$Q5)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.3072263244677038</v>
       </c>
       <c r="V12">
-        <f>(V5/$Q5)</f>
-        <v>1.7049432364680135</v>
+        <f t="shared" si="3"/>
+        <v>1.7257151050254498</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="G13">
-        <f>(G6/$Q6)</f>
-        <v>1.1673941351527817</v>
+        <f t="shared" si="0"/>
+        <v>0.74512620249547568</v>
       </c>
       <c r="L13">
-        <f>(L6/$Q6)</f>
-        <v>1.1461332942399269</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <f>(Q6/$Q6)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.5942356414896657</v>
       </c>
       <c r="V13">
-        <f>(V6/$Q6)</f>
-        <v>1.3763149201953468</v>
+        <f t="shared" si="3"/>
+        <v>1.0747728355081436</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="G14">
-        <f>(G7/$Q7)</f>
-        <v>1.2053700820281532</v>
+        <f t="shared" si="0"/>
+        <v>0.82962072388374042</v>
       </c>
       <c r="L14">
-        <f>(L7/$Q7)</f>
-        <v>1.2082453433017277</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <f>(Q7/$Q7)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4.2635588383242791</v>
       </c>
       <c r="V14">
-        <f>(V7/$Q7)</f>
-        <v>5.1391662666827944</v>
+        <f t="shared" si="3"/>
+        <v>1.0023853763391377</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10:V14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.03</v>
+      </c>
+      <c r="C3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.155</v>
+      </c>
+      <c r="E3">
+        <v>3.2139709999999999</v>
+      </c>
+      <c r="F3">
+        <v>2.9227110000000001</v>
+      </c>
+      <c r="G3">
+        <v>3.4603980000000001</v>
+      </c>
+      <c r="H3">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="I3">
+        <v>5.117</v>
+      </c>
+      <c r="J3">
+        <v>3.6039460000000001</v>
+      </c>
+      <c r="K3">
+        <v>3.411286</v>
+      </c>
+      <c r="L3">
+        <v>3.9891610000000002</v>
+      </c>
+      <c r="M3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N3">
+        <v>1.853</v>
+      </c>
+      <c r="O3">
+        <v>5.2677449999999997</v>
+      </c>
+      <c r="P3">
+        <v>5.1803030000000003</v>
+      </c>
+      <c r="Q3">
+        <v>5.7989850000000001</v>
+      </c>
+      <c r="R3">
+        <v>31.457999999999998</v>
+      </c>
+      <c r="S3">
+        <v>2.823</v>
+      </c>
+      <c r="T3">
+        <v>3.383915</v>
+      </c>
+      <c r="U3">
+        <v>3.3214070000000002</v>
+      </c>
+      <c r="V3">
+        <v>4.1846360000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E4">
+        <v>1.5030790000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.4910490000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.6156999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.221</v>
+      </c>
+      <c r="I4">
+        <v>0.626</v>
+      </c>
+      <c r="J4">
+        <v>1.7298519999999999</v>
+      </c>
+      <c r="K4">
+        <v>1.689629</v>
+      </c>
+      <c r="L4">
+        <v>2.4410530000000001</v>
+      </c>
+      <c r="M4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N4">
+        <v>1.196</v>
+      </c>
+      <c r="O4">
+        <v>14.485011</v>
+      </c>
+      <c r="P4">
+        <v>14.190554000000001</v>
+      </c>
+      <c r="Q4">
+        <v>14.628181</v>
+      </c>
+      <c r="R4">
+        <v>21.216000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="T4">
+        <v>8.1262849999999993</v>
+      </c>
+      <c r="U4">
+        <v>7.8859469999999998</v>
+      </c>
+      <c r="V4">
+        <v>8.2408819999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.25382500000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.242977</v>
+      </c>
+      <c r="G5">
+        <v>0.26407799999999998</v>
+      </c>
+      <c r="H5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.25071199999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.23454700000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.29522999999999999</v>
+      </c>
+      <c r="M5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N5">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="O5">
+        <v>0.41547299999999998</v>
+      </c>
+      <c r="P5">
+        <v>0.40252900000000003</v>
+      </c>
+      <c r="Q5">
+        <v>0.45023800000000003</v>
+      </c>
+      <c r="R5">
+        <v>12.669</v>
+      </c>
+      <c r="S5">
+        <v>0.73</v>
+      </c>
+      <c r="T5">
+        <v>0.41711799999999999</v>
+      </c>
+      <c r="U5">
+        <v>0.40428700000000001</v>
+      </c>
+      <c r="V5">
+        <v>0.46420699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E6">
+        <v>15.595147000000001</v>
+      </c>
+      <c r="F6">
+        <v>15.363842</v>
+      </c>
+      <c r="G6">
+        <v>15.784418000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="J6">
+        <v>18.208698999999999</v>
+      </c>
+      <c r="K6">
+        <v>17.935727</v>
+      </c>
+      <c r="L6">
+        <v>18.426636999999999</v>
+      </c>
+      <c r="M6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N6">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="O6">
+        <v>21.383738999999998</v>
+      </c>
+      <c r="P6">
+        <v>21.160083</v>
+      </c>
+      <c r="Q6">
+        <v>21.724329999999998</v>
+      </c>
+      <c r="R6">
+        <v>33.533999999999999</v>
+      </c>
+      <c r="S6">
+        <v>1.157</v>
+      </c>
+      <c r="T6">
+        <v>17.866958</v>
+      </c>
+      <c r="U6">
+        <v>17.705908999999998</v>
+      </c>
+      <c r="V6">
+        <v>18.091047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E7">
+        <v>2.555625</v>
+      </c>
+      <c r="F7">
+        <v>2.5491959999999998</v>
+      </c>
+      <c r="G7">
+        <v>2.5959379999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.11</v>
+      </c>
+      <c r="I7">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J7">
+        <v>3.065226</v>
+      </c>
+      <c r="K7">
+        <v>3.0412699999999999</v>
+      </c>
+      <c r="L7">
+        <v>3.1290659999999999</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="O7">
+        <v>13.185905</v>
+      </c>
+      <c r="P7">
+        <v>12.985325</v>
+      </c>
+      <c r="Q7">
+        <v>13.340957</v>
+      </c>
+      <c r="R7">
+        <v>18.425000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="T7">
+        <v>3.0903779999999998</v>
+      </c>
+      <c r="U7">
+        <v>3.051069</v>
+      </c>
+      <c r="V7">
+        <v>3.13653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="G10">
+        <f>(G3/$L3)</f>
+        <v>0.86745007283486431</v>
+      </c>
+      <c r="L10">
+        <f>(L3/$L3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f>(Q3/$L3)</f>
+        <v>1.4536853739420394</v>
+      </c>
+      <c r="V10">
+        <f>(V3/$L3)</f>
+        <v>1.049001531901069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="0">(G4/$L4)</f>
+        <v>0.66188648915037884</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L14" si="1">(L4/$L4)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:Q14" si="2">(Q4/$L4)</f>
+        <v>5.9925700097457932</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ref="V11:V14" si="3">(V4/$L4)</f>
+        <v>3.3759537379974947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.89448226806218878</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>1.5250414930731973</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>1.5723571452765641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.85660872355601303</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>1.178963366999632</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>0.98178777820391205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.82962072388374042</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>4.2635588383242791</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>1.0023853763391377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
